--- a/lin_R1_by_R2 (2.5 by 1)100.xlsx
+++ b/lin_R1_by_R2 (2.5 by 1)100.xlsx
@@ -314,6 +314,131 @@
         <v>-0.11368864499688447</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9.18578224124646</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.564214690712749</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.558483741581705</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.328045139469435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.073641774588644</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.047993972665108</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.56925777383191</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46.03796790192839</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57.95836769910185</v>
+      </c>
+      <c r="J3" t="n">
+        <v>72.96526192250955</v>
+      </c>
+      <c r="K3" t="n">
+        <v>91.8578224124646</v>
+      </c>
+      <c r="L3" t="n">
+        <v>115.64214690712748</v>
+      </c>
+      <c r="M3" t="n">
+        <v>145.58483741581705</v>
+      </c>
+      <c r="N3" t="n">
+        <v>183.28045139469435</v>
+      </c>
+      <c r="O3" t="n">
+        <v>230.73641774588646</v>
+      </c>
+      <c r="P3" t="n">
+        <v>290.4799397266511</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>365.6925777383191</v>
+      </c>
+      <c r="R3" t="n">
+        <v>460.37967901928386</v>
+      </c>
+      <c r="S3" t="n">
+        <v>579.5836769910185</v>
+      </c>
+      <c r="T3" t="n">
+        <v>729.6526192250955</v>
+      </c>
+      <c r="U3" t="n">
+        <v>918.578224124646</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1156.421469071275</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1455.8483741581706</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1832.8045139469436</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2307.3641774588646</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2904.799397266511</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3656.925777383191</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4603.796790192839</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5795.836769910185</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7296.526192250955</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9185.782241246461</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11564.214690712748</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14558.483741581706</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>18328.045139469436</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23073.641774588643</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29047.99397266511</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>36569.25777383191</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>46037.96790192839</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>57958.367699101844</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>72965.26192250956</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>91857.82241246461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -575,6 +700,131 @@
       </c>
       <c r="AO2" t="n">
         <v>-0.11369808791089073</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9.18578224124646</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.564214690712749</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.558483741581705</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.328045139469435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.073641774588644</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.047993972665108</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.56925777383191</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46.03796790192839</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57.95836769910185</v>
+      </c>
+      <c r="J3" t="n">
+        <v>72.96526192250955</v>
+      </c>
+      <c r="K3" t="n">
+        <v>91.8578224124646</v>
+      </c>
+      <c r="L3" t="n">
+        <v>115.64214690712748</v>
+      </c>
+      <c r="M3" t="n">
+        <v>145.58483741581705</v>
+      </c>
+      <c r="N3" t="n">
+        <v>183.28045139469435</v>
+      </c>
+      <c r="O3" t="n">
+        <v>230.73641774588646</v>
+      </c>
+      <c r="P3" t="n">
+        <v>290.4799397266511</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>365.6925777383191</v>
+      </c>
+      <c r="R3" t="n">
+        <v>460.37967901928386</v>
+      </c>
+      <c r="S3" t="n">
+        <v>579.5836769910185</v>
+      </c>
+      <c r="T3" t="n">
+        <v>729.6526192250955</v>
+      </c>
+      <c r="U3" t="n">
+        <v>918.578224124646</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1156.421469071275</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1455.8483741581706</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1832.8045139469436</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2307.3641774588646</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2904.799397266511</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3656.925777383191</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4603.796790192839</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5795.836769910185</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7296.526192250955</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9185.782241246461</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11564.214690712748</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14558.483741581706</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>18328.045139469436</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23073.641774588643</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29047.99397266511</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>36569.25777383191</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>46037.96790192839</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>57958.367699101844</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>72965.26192250956</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>91857.82241246461</v>
       </c>
     </row>
   </sheetData>
@@ -840,6 +1090,131 @@
         <v>-0.11369943816600273</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9.18578224124646</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.564214690712749</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.558483741581705</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.328045139469435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.073641774588644</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.047993972665108</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.56925777383191</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46.03796790192839</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57.95836769910185</v>
+      </c>
+      <c r="J3" t="n">
+        <v>72.96526192250955</v>
+      </c>
+      <c r="K3" t="n">
+        <v>91.8578224124646</v>
+      </c>
+      <c r="L3" t="n">
+        <v>115.64214690712748</v>
+      </c>
+      <c r="M3" t="n">
+        <v>145.58483741581705</v>
+      </c>
+      <c r="N3" t="n">
+        <v>183.28045139469435</v>
+      </c>
+      <c r="O3" t="n">
+        <v>230.73641774588646</v>
+      </c>
+      <c r="P3" t="n">
+        <v>290.4799397266511</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>365.6925777383191</v>
+      </c>
+      <c r="R3" t="n">
+        <v>460.37967901928386</v>
+      </c>
+      <c r="S3" t="n">
+        <v>579.5836769910185</v>
+      </c>
+      <c r="T3" t="n">
+        <v>729.6526192250955</v>
+      </c>
+      <c r="U3" t="n">
+        <v>918.578224124646</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1156.421469071275</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1455.8483741581706</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1832.8045139469436</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2307.3641774588646</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2904.799397266511</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3656.925777383191</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4603.796790192839</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5795.836769910185</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7296.526192250955</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9185.782241246461</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11564.214690712748</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14558.483741581706</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>18328.045139469436</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23073.641774588643</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29047.99397266511</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>36569.25777383191</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>46037.96790192839</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>57958.367699101844</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>72965.26192250956</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>91857.82241246461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1103,6 +1478,131 @@
         <v>-0.11368863525144585</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>9.18578224124646</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.564214690712749</v>
+      </c>
+      <c r="C3" t="n">
+        <v>14.558483741581705</v>
+      </c>
+      <c r="D3" t="n">
+        <v>18.328045139469435</v>
+      </c>
+      <c r="E3" t="n">
+        <v>23.073641774588644</v>
+      </c>
+      <c r="F3" t="n">
+        <v>29.047993972665108</v>
+      </c>
+      <c r="G3" t="n">
+        <v>36.56925777383191</v>
+      </c>
+      <c r="H3" t="n">
+        <v>46.03796790192839</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57.95836769910185</v>
+      </c>
+      <c r="J3" t="n">
+        <v>72.96526192250955</v>
+      </c>
+      <c r="K3" t="n">
+        <v>91.8578224124646</v>
+      </c>
+      <c r="L3" t="n">
+        <v>115.64214690712748</v>
+      </c>
+      <c r="M3" t="n">
+        <v>145.58483741581705</v>
+      </c>
+      <c r="N3" t="n">
+        <v>183.28045139469435</v>
+      </c>
+      <c r="O3" t="n">
+        <v>230.73641774588646</v>
+      </c>
+      <c r="P3" t="n">
+        <v>290.4799397266511</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>365.6925777383191</v>
+      </c>
+      <c r="R3" t="n">
+        <v>460.37967901928386</v>
+      </c>
+      <c r="S3" t="n">
+        <v>579.5836769910185</v>
+      </c>
+      <c r="T3" t="n">
+        <v>729.6526192250955</v>
+      </c>
+      <c r="U3" t="n">
+        <v>918.578224124646</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1156.421469071275</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1455.8483741581706</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1832.8045139469436</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2307.3641774588646</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2904.799397266511</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>3656.925777383191</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>4603.796790192839</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>5795.836769910185</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>7296.526192250955</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>9185.782241246461</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>11564.214690712748</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>14558.483741581706</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>18328.045139469436</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>23073.641774588643</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>29047.99397266511</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>36569.25777383191</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>46037.96790192839</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>57958.367699101844</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>72965.26192250956</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>91857.82241246461</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/lin_R1_by_R2 (2.5 by 1)100.xlsx
+++ b/lin_R1_by_R2 (2.5 by 1)100.xlsx
@@ -66,100 +66,100 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.4166255116403481</v>
+        <v>1.4147263891517605</v>
       </c>
       <c r="B1" t="n">
-        <v>1.4166014420918913</v>
+        <v>1.413595410393836</v>
       </c>
       <c r="C1" t="n">
-        <v>1.4165632970682542</v>
+        <v>1.41180875833944</v>
       </c>
       <c r="D1" t="n">
-        <v>1.416502847910071</v>
+        <v>1.4089916512060652</v>
       </c>
       <c r="E1" t="n">
-        <v>1.4164070591011941</v>
+        <v>1.4045630004501777</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4162552858795114</v>
+        <v>1.3976334393584626</v>
       </c>
       <c r="G1" t="n">
-        <v>1.4160148464963414</v>
+        <v>1.3868696814347008</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4156340391790199</v>
+        <v>1.370338515396394</v>
       </c>
       <c r="I1" t="n">
-        <v>1.4150311610315722</v>
+        <v>1.3453854553480886</v>
       </c>
       <c r="J1" t="n">
-        <v>1.4140773197262058</v>
+        <v>1.3086848401600542</v>
       </c>
       <c r="K1" t="n">
-        <v>1.4125697288359302</v>
+        <v>1.2567071118800677</v>
       </c>
       <c r="L1" t="n">
-        <v>1.4101907148505526</v>
+        <v>1.1868717385999712</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4064460216395518</v>
+        <v>1.0993230127396039</v>
       </c>
       <c r="N1" t="n">
-        <v>1.4005749834732077</v>
+        <v>0.9984176677222215</v>
       </c>
       <c r="O1" t="n">
-        <v>1.3914271045065845</v>
+        <v>0.8923324873001378</v>
       </c>
       <c r="P1" t="n">
-        <v>1.3773101716808862</v>
+        <v>0.790161936033645</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.3558453828635515</v>
+        <v>0.6982932985710341</v>
       </c>
       <c r="R1" t="n">
-        <v>1.3239308012476179</v>
+        <v>0.6187488959251155</v>
       </c>
       <c r="S1" t="n">
-        <v>1.2780190844084043</v>
+        <v>0.5502178250735754</v>
       </c>
       <c r="T1" t="n">
-        <v>1.21499368715714</v>
+        <v>0.49028091207120256</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1337649754112515</v>
+        <v>0.43704402746996546</v>
       </c>
       <c r="V1" t="n">
-        <v>1.0370349317370149</v>
+        <v>0.3894947128586204</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9317777410111727</v>
+        <v>0.34707337800067883</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8271953423478244</v>
+        <v>0.30928257413959115</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7310254343075339</v>
+        <v>0.2756196637565922</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.64691956589468</v>
+        <v>0.24562659423925715</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.5745648424380921</v>
+        <v>0.21890105012165811</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.511702639003756</v>
+        <v>0.19508607864696745</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4561346726224782</v>
+        <v>0.17386387888567167</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.40654843528341733</v>
+        <v>0.15495160370691294</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.3622775864712015</v>
+        <v>0.1380974384298896</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3228246986573964</v>
+        <v>0.12307713909961743</v>
       </c>
       <c r="AG1" t="n">
         <v>0.2876836925037768</v>
@@ -191,100 +191,100 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-52.43069303375103</v>
+        <v>-7.670937427672868</v>
       </c>
       <c r="B2" t="n">
-        <v>-41.650156452720324</v>
+        <v>-6.113596666341726</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.087642335852955</v>
+        <v>-4.881748518416438</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.28716533928038</v>
+        <v>-3.909715263992952</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.88657477861179</v>
+        <v>-3.1455804847164166</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.5982685433863</v>
+        <v>-2.548354414000553</v>
       </c>
       <c r="G2" t="n">
-        <v>-13.193876755737405</v>
+        <v>-2.0856608162550194</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.49209928565169</v>
+        <v>-1.731780016702278</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.349048957260246</v>
+        <v>-1.465890981124534</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.650585261053013</v>
+        <v>-1.2703886571024663</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.306228498536399</v>
+        <v>-1.1292770315079577</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.244326739799997</v>
+        <v>-1.0269319462643156</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.408211483416267</v>
+        <v>-0.9479148848000492</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.7531247780156094</v>
+        <v>-0.8784866767806901</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.243731944365489</v>
+        <v>-0.8093289602403596</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.852051084221032</v>
+        <v>-0.7373429558626902</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.555638497150993</v>
+        <v>-0.6645946227461433</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.3358876237452924</v>
+        <v>-0.5950519662357846</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.176379482500256</v>
+        <v>-0.5316121290282336</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.0614478001654362</v>
+        <v>-0.4750691129442336</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.975505970113949</v>
+        <v>-0.42478360370172413</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.9038977947662026</v>
+        <v>-0.37980554136374395</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.835343973195362</v>
+        <v>-0.3394517848652805</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7643859403570621</v>
+        <v>-0.3032699028240927</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6914799615113436</v>
+        <v>-0.2708679402015942</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.620304772017098</v>
+        <v>-0.24186970124773444</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.5543926849258498</v>
+        <v>-0.2159293240493275</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.4953094773619762</v>
+        <v>-0.1927342952062315</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.44281246280572817</v>
+        <v>-0.17200193621838805</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.39595882493407625</v>
+        <v>-0.1534769327801601</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.3539464114831717</v>
+        <v>-0.13692910798911836</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3162600946236845</v>
+        <v>-0.12215124363731603</v>
       </c>
       <c r="AG2" t="n">
         <v>-0.28249781714032735</v>
@@ -316,100 +316,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.18578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>11.564214690712749</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>14.558483741581705</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>18.328045139469435</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>23.073641774588644</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>29.047993972665108</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>36.56925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>46.03796790192839</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>57.95836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>72.96526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>91.8578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>115.64214690712748</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>145.58483741581705</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>183.28045139469435</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>230.73641774588646</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>290.4799397266511</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>365.6925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>460.37967901928386</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>579.5836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>729.6526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>918.578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>1156.421469071275</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>1455.8483741581706</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>1832.8045139469436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>2307.3641774588646</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>2904.799397266511</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>3656.925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>4603.796790192839</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>5795.836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>7296.526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>9185.782241246461</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>11564.214690712748</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
         <v>14558.483741581706</v>
@@ -454,100 +454,100 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.416731444081845</v>
+        <v>1.4192735987189322</v>
       </c>
       <c r="B1" t="n">
-        <v>1.4167691215037885</v>
+        <v>1.4204255910671095</v>
       </c>
       <c r="C1" t="n">
-        <v>1.416828519657355</v>
+        <v>1.421798867237908</v>
       </c>
       <c r="D1" t="n">
-        <v>1.416921869122854</v>
+        <v>1.4230780994545578</v>
       </c>
       <c r="E1" t="n">
-        <v>1.417067852059862</v>
+        <v>1.423501507624583</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4172943556590605</v>
+        <v>1.4216617145952233</v>
       </c>
       <c r="G1" t="n">
-        <v>1.4176414115887876</v>
+        <v>1.4154072488053253</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4181626000806153</v>
+        <v>1.4018759468430224</v>
       </c>
       <c r="I1" t="n">
-        <v>1.4189202570271042</v>
+        <v>1.3775939464489726</v>
       </c>
       <c r="J1" t="n">
-        <v>1.4199641402742416</v>
+        <v>1.3386613698390377</v>
       </c>
       <c r="K1" t="n">
-        <v>1.4212749994234366</v>
+        <v>1.2813262347813863</v>
       </c>
       <c r="L1" t="n">
-        <v>1.422649523991263</v>
+        <v>1.2033768372713893</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4235174198869642</v>
+        <v>1.1062874279367554</v>
       </c>
       <c r="N1" t="n">
-        <v>1.4227301269436834</v>
+        <v>0.9967651355415346</v>
       </c>
       <c r="O1" t="n">
-        <v>1.4184151673208218</v>
+        <v>0.8854453334931914</v>
       </c>
       <c r="P1" t="n">
-        <v>1.4079648526909179</v>
+        <v>0.7823551360670936</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.3881190276827726</v>
+        <v>0.6925732506957696</v>
       </c>
       <c r="R1" t="n">
-        <v>1.3550997422062472</v>
+        <v>0.6157546234230461</v>
       </c>
       <c r="S1" t="n">
-        <v>1.3049886920219116</v>
+        <v>0.5489758004917371</v>
       </c>
       <c r="T1" t="n">
-        <v>1.2347778752320615</v>
+        <v>0.4896594643777707</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1443114331137978</v>
+        <v>0.43654242262850007</v>
       </c>
       <c r="V1" t="n">
-        <v>1.038306409517564</v>
+        <v>0.3890815566262899</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9263326782146213</v>
+        <v>0.34677933809283623</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8192667642525849</v>
+        <v>0.3090812860566052</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7243284527598336</v>
+        <v>0.2754787659664723</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6429712721218427</v>
+        <v>0.2455274134412372</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.5728234298157676</v>
+        <v>0.21883132164449162</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5109469428915597</v>
+        <v>0.195037015472169</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4556069219476466</v>
+        <v>0.17382933102674936</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4060960099018974</v>
+        <v>0.1549272622008735</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.3619400634706596</v>
+        <v>0.13808027879418078</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.32259343572671156</v>
+        <v>0.12306503657941237</v>
       </c>
       <c r="AG1" t="n">
         <v>0.28752311217348364</v>
@@ -579,100 +579,100 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-52.428926812706614</v>
+        <v>-7.66025739230961</v>
       </c>
       <c r="B2" t="n">
-        <v>-41.647936611896675</v>
+        <v>-6.101104560333849</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.08485508089656</v>
+        <v>-4.867697997035358</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.283671004572064</v>
+        <v>-3.89480490675157</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.88220460024482</v>
+        <v>-3.1310694218943094</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.592823833179757</v>
+        <v>-2.5360192446618552</v>
       </c>
       <c r="G2" t="n">
-        <v>-13.187133872490834</v>
+        <v>-2.0775286609258097</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.483826572219542</v>
+        <v>-1.7297085657889284</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.339045656157168</v>
+        <v>-1.471150851617347</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.638755790707938</v>
+        <v>-1.2833238412656076</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.2927030359298595</v>
+        <v>-1.1489978652061266</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.229620170455731</v>
+        <v>-1.0510503579883228</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.3933686492262978</v>
+        <v>-0.9726154741253091</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.7397490459281593</v>
+        <v>-0.8994466915031011</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.2338013582774843</v>
+        <v>-0.8235171388675011</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.8475383895324455</v>
+        <v>-0.7445107751265787</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.5580762795558913</v>
+        <v>-0.6669822970497307</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.3460004461994175</v>
+        <v>-0.5955176282936584</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.193772203606884</v>
+        <v>-0.5319314742541229</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.0843095688793116</v>
+        <v>-0.4756281354902582</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.0005003401081682</v>
+        <v>-0.4253398270201973</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.9267152590476573</v>
+        <v>-0.3801994314116048</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.8522437530197652</v>
+        <v>-0.3397122500601453</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7740044040852011</v>
+        <v>-0.3034529078805676</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6952966942268319</v>
+        <v>-0.27099883460192964</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.6211969777716387</v>
+        <v>-0.2419625315149594</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.5546574000912189</v>
+        <v>-0.21599509073284237</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.4957950179388555</v>
+        <v>-0.19278089810400392</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.4434011691852355</v>
+        <v>-0.17203495120420786</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.39641639201659834</v>
+        <v>-0.1535003180742225</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.35424852106737803</v>
+        <v>-0.1369456703932401</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3164675846264749</v>
+        <v>-0.12216297272541034</v>
       </c>
       <c r="AG2" t="n">
         <v>-0.2826462357007639</v>
@@ -704,100 +704,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.18578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>11.564214690712749</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>14.558483741581705</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>18.328045139469435</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>23.073641774588644</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>29.047993972665108</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>36.56925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>46.03796790192839</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>57.95836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>72.96526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>91.8578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>115.64214690712748</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>145.58483741581705</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>183.28045139469435</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>230.73641774588646</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>290.4799397266511</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>365.6925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>460.37967901928386</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>579.5836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>729.6526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>918.578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>1156.421469071275</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>1455.8483741581706</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>1832.8045139469436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>2307.3641774588646</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>2904.799397266511</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>3656.925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>4603.796790192839</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>5795.836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>7296.526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>9185.782241246461</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>11564.214690712748</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
         <v>14558.483741581706</v>
@@ -842,100 +842,100 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.4765548964841602</v>
+        <v>1.4716990269364685</v>
       </c>
       <c r="B1" t="n">
-        <v>1.476489668517161</v>
+        <v>1.4690492550584253</v>
       </c>
       <c r="C1" t="n">
-        <v>1.4763865082037884</v>
+        <v>1.4651563252593347</v>
       </c>
       <c r="D1" t="n">
-        <v>1.4762235569112336</v>
+        <v>1.4595844689438278</v>
       </c>
       <c r="E1" t="n">
-        <v>1.4759666564376137</v>
+        <v>1.45179400869627</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4755628595318884</v>
+        <v>1.44101792098921</v>
       </c>
       <c r="G1" t="n">
-        <v>1.4749311258395044</v>
+        <v>1.4259874418357927</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4739498086012224</v>
+        <v>1.4046080865551003</v>
       </c>
       <c r="I1" t="n">
-        <v>1.472441598275183</v>
+        <v>1.3738422083599793</v>
       </c>
       <c r="J1" t="n">
-        <v>1.4701588440436242</v>
+        <v>1.3300270018390106</v>
       </c>
       <c r="K1" t="n">
-        <v>1.46677474828499</v>
+        <v>1.2697626961810544</v>
       </c>
       <c r="L1" t="n">
-        <v>1.4618833258724437</v>
+        <v>1.191396776812937</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4549907624969622</v>
+        <v>1.0966784300581343</v>
       </c>
       <c r="N1" t="n">
-        <v>1.4454386068937195</v>
+        <v>0.9914383020920225</v>
       </c>
       <c r="O1" t="n">
-        <v>1.4321844302347368</v>
+        <v>0.8842156946245295</v>
       </c>
       <c r="P1" t="n">
-        <v>1.4134716170537844</v>
+        <v>0.7832252991870841</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.3866029183134974</v>
+        <v>0.6935061109216695</v>
       </c>
       <c r="R1" t="n">
-        <v>1.3480770138731655</v>
+        <v>0.6159851013922293</v>
       </c>
       <c r="S1" t="n">
-        <v>1.2942526191453612</v>
+        <v>0.5487845186442009</v>
       </c>
       <c r="T1" t="n">
-        <v>1.2226255245121984</v>
+        <v>0.48946640379290984</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1335178506483568</v>
+        <v>0.4364552666257539</v>
       </c>
       <c r="V1" t="n">
-        <v>1.0312818980116567</v>
+        <v>0.38903791453324055</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9237460630739215</v>
+        <v>0.3467446434976905</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8196350645632124</v>
+        <v>0.30905529059323555</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7254055075897426</v>
+        <v>0.2754605537229513</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6434667285491152</v>
+        <v>0.24551448237119491</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.5727296376652136</v>
+        <v>0.21882213206535858</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.5107242546770442</v>
+        <v>0.19503049169652398</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4554848160802141</v>
+        <v>0.17382470070686448</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.40604348206519536</v>
+        <v>0.1549239767249751</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.36190275757306767</v>
+        <v>0.13807794813789495</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.32256402852887006</v>
+        <v>0.12306338361958342</v>
       </c>
       <c r="AG1" t="n">
         <v>0.2875023391611617</v>
@@ -967,100 +967,100 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-52.432555869561156</v>
+        <v>-7.682806467265623</v>
       </c>
       <c r="B2" t="n">
-        <v>-41.652499234461054</v>
+        <v>-6.127937291599255</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.09058697152731</v>
+        <v>-4.898759551723353</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.290862985439237</v>
+        <v>-3.9294404749950447</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.89121118132052</v>
+        <v>-3.167902157010336</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.604068694280727</v>
+        <v>-2.5730887800257327</v>
       </c>
       <c r="G2" t="n">
-        <v>-13.201106942097647</v>
+        <v>-2.1127086007894635</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.501062991095726</v>
+        <v>-1.7611567216559305</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.360070979584973</v>
+        <v>-1.4974859802978566</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.663977183376508</v>
+        <v>-1.3035140663466087</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.3222323005182</v>
+        <v>-1.162278603058186</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.2630488780641285</v>
+        <v>-1.057238853356511</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.4295890034246503</v>
+        <v>-0.9728053494627992</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.776981095041778</v>
+        <v>-0.8963095779119725</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.269921776350283</v>
+        <v>-0.8202553691394503</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.880559580976487</v>
+        <v>-0.7430016644845572</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.586447567607344</v>
+        <v>-0.667082486967795</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.3685803826131722</v>
+        <v>-0.5961311235035368</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.209687123256702</v>
+        <v>-0.532327429919943</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.0930913175176145</v>
+        <v>-0.4757556112721279</v>
       </c>
       <c r="U2" t="n">
-        <v>-1.0026864157862958</v>
+        <v>-0.42538732162600956</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.9244295976209194</v>
+        <v>-0.38024675635372285</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.848702528554926</v>
+        <v>-0.33975146597103867</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7717614941981225</v>
+        <v>-0.3034796678509151</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6949105842204236</v>
+        <v>-0.27101758175544166</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.621743570131288</v>
+        <v>-0.24197585680448055</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.555170719600711</v>
+        <v>-0.21600452166317516</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.49600133459987517</v>
+        <v>-0.19278757505693372</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.44346076785329125</v>
+        <v>-0.17203967836712142</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.39646284710591184</v>
+        <v>-0.1535036647766139</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.3542922699056049</v>
+        <v>-0.13694803974927666</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3164985170469949</v>
+        <v>-0.12216465014171564</v>
       </c>
       <c r="AG2" t="n">
         <v>-0.2826675326565655</v>
@@ -1092,100 +1092,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.18578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>11.564214690712749</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>14.558483741581705</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>18.328045139469435</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>23.073641774588644</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>29.047993972665108</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>36.56925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>46.03796790192839</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>57.95836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>72.96526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>91.8578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>115.64214690712748</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>145.58483741581705</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>183.28045139469435</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>230.73641774588646</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>290.4799397266511</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>365.6925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>460.37967901928386</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>579.5836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>729.6526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>918.578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>1156.421469071275</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>1455.8483741581706</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>1832.8045139469436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>2307.3641774588646</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>2904.799397266511</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>3656.925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>4603.796790192839</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>5795.836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>7296.526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>9185.782241246461</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>11564.214690712748</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
         <v>14558.483741581706</v>
@@ -1230,100 +1230,100 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
-        <v>1.4166127076651156</v>
+        <v>1.4142792175280032</v>
       </c>
       <c r="B1" t="n">
-        <v>1.4165812255052048</v>
+        <v>1.4130072905006494</v>
       </c>
       <c r="C1" t="n">
-        <v>1.4165314468440038</v>
+        <v>1.4111257573961757</v>
       </c>
       <c r="D1" t="n">
-        <v>1.4164528448129827</v>
+        <v>1.4083745977337514</v>
       </c>
       <c r="E1" t="n">
-        <v>1.416328991961459</v>
+        <v>1.4043376721784373</v>
       </c>
       <c r="F1" t="n">
-        <v>1.4161344751397313</v>
+        <v>1.3982652718447326</v>
       </c>
       <c r="G1" t="n">
-        <v>1.415830498050112</v>
+        <v>1.3888095624465118</v>
       </c>
       <c r="H1" t="n">
-        <v>1.4153589819344963</v>
+        <v>1.3737986116151684</v>
       </c>
       <c r="I1" t="n">
-        <v>1.414635323578746</v>
+        <v>1.350199102899315</v>
       </c>
       <c r="J1" t="n">
-        <v>1.4135403366927064</v>
+        <v>1.3143316672746825</v>
       </c>
       <c r="K1" t="n">
-        <v>1.411910754700605</v>
+        <v>1.2624404420027409</v>
       </c>
       <c r="L1" t="n">
-        <v>1.4095205040034358</v>
+        <v>1.1918540042857868</v>
       </c>
       <c r="M1" t="n">
-        <v>1.4060261942362349</v>
+        <v>1.1027548735563335</v>
       </c>
       <c r="N1" t="n">
-        <v>1.4008299246185218</v>
+        <v>0.9997410229206882</v>
       </c>
       <c r="O1" t="n">
-        <v>1.392838511881124</v>
+        <v>0.8915635035222821</v>
       </c>
       <c r="P1" t="n">
-        <v>1.3802031581431555</v>
+        <v>0.7881098952989503</v>
       </c>
       <c r="Q1" t="n">
-        <v>1.3601998944302973</v>
+        <v>0.6961992664160966</v>
       </c>
       <c r="R1" t="n">
-        <v>1.329346126913435</v>
+        <v>0.6174672224997452</v>
       </c>
       <c r="S1" t="n">
-        <v>1.2838158953305732</v>
+        <v>0.5497797906530084</v>
       </c>
       <c r="T1" t="n">
-        <v>1.2203537133398463</v>
+        <v>0.49023244743581135</v>
       </c>
       <c r="U1" t="n">
-        <v>1.1378573744941467</v>
+        <v>0.437028579950111</v>
       </c>
       <c r="V1" t="n">
-        <v>1.0391790944456558</v>
+        <v>0.3894454566359135</v>
       </c>
       <c r="W1" t="n">
-        <v>0.9317343409276297</v>
+        <v>0.34703242118450717</v>
       </c>
       <c r="X1" t="n">
-        <v>0.8254823217094309</v>
+        <v>0.30926000247885627</v>
       </c>
       <c r="Y1" t="n">
-        <v>0.7288091237221381</v>
+        <v>0.275606168445567</v>
       </c>
       <c r="Z1" t="n">
-        <v>0.6452884244614991</v>
+        <v>0.24561794485186866</v>
       </c>
       <c r="AA1" t="n">
-        <v>0.5738541447908243</v>
+        <v>0.21889561955053566</v>
       </c>
       <c r="AB1" t="n">
-        <v>0.511566041063671</v>
+        <v>0.1950826695153018</v>
       </c>
       <c r="AC1" t="n">
-        <v>0.4561283155882222</v>
+        <v>0.17386173604530886</v>
       </c>
       <c r="AD1" t="n">
-        <v>0.4065075712737842</v>
+        <v>0.15495025648390037</v>
       </c>
       <c r="AE1" t="n">
-        <v>0.3622299289892495</v>
+        <v>0.13809659111118489</v>
       </c>
       <c r="AF1" t="n">
-        <v>0.3227962992329094</v>
+        <v>0.12307660601774446</v>
       </c>
       <c r="AG1" t="n">
         <v>0.2876676488238358</v>
@@ -1355,100 +1355,100 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-52.43069179127781</v>
+        <v>-7.670597029010935</v>
       </c>
       <c r="B2" t="n">
-        <v>-41.65015397915777</v>
+        <v>-6.112980036195898</v>
       </c>
       <c r="C2" t="n">
-        <v>-33.087637417762686</v>
+        <v>-4.880685645604723</v>
       </c>
       <c r="D2" t="n">
-        <v>-26.287155580816364</v>
+        <v>-3.9080078363651056</v>
       </c>
       <c r="E2" t="n">
-        <v>-20.88655547830199</v>
+        <v>-3.1430868167643427</v>
       </c>
       <c r="F2" t="n">
-        <v>-16.598230564665194</v>
+        <v>-2.5451309061970027</v>
       </c>
       <c r="G2" t="n">
-        <v>-13.193802614930581</v>
+        <v>-2.082074428145639</v>
       </c>
       <c r="H2" t="n">
-        <v>-10.491956334954837</v>
+        <v>-1.7284716458054739</v>
       </c>
       <c r="I2" t="n">
-        <v>-8.348778558724941</v>
+        <v>-1.463580575417037</v>
       </c>
       <c r="J2" t="n">
-        <v>-6.650088447872116</v>
+        <v>-1.2696514498315499</v>
       </c>
       <c r="K2" t="n">
-        <v>-5.305354291266762</v>
+        <v>-1.130403742306295</v>
       </c>
       <c r="L2" t="n">
-        <v>-4.242881200314537</v>
+        <v>-1.02986958527667</v>
       </c>
       <c r="M2" t="n">
-        <v>-3.4060174653746906</v>
+        <v>-0.9522235494947</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.750147520531674</v>
+        <v>-0.8833017513756055</v>
       </c>
       <c r="O2" t="n">
-        <v>-2.240217267020443</v>
+        <v>-0.8134861720612083</v>
       </c>
       <c r="P2" t="n">
-        <v>-1.8485541944652604</v>
+        <v>-0.7398786244594443</v>
       </c>
       <c r="Q2" t="n">
-        <v>-1.552878002488376</v>
+        <v>-0.6653692676189986</v>
       </c>
       <c r="R2" t="n">
-        <v>-1.334514508122477</v>
+        <v>-0.594779865475007</v>
       </c>
       <c r="S2" t="n">
-        <v>-1.1768002146781165</v>
+        <v>-0.5311751972858181</v>
       </c>
       <c r="T2" t="n">
-        <v>-1.0637417211826745</v>
+        <v>-0.47487925316700663</v>
       </c>
       <c r="U2" t="n">
-        <v>-0.97938302802389</v>
+        <v>-0.42477665734794834</v>
       </c>
       <c r="V2" t="n">
-        <v>-0.9086510682345253</v>
+        <v>-0.3798231771554441</v>
       </c>
       <c r="W2" t="n">
-        <v>-0.839884266527113</v>
+        <v>-0.33945164351374896</v>
       </c>
       <c r="X2" t="n">
-        <v>-0.7675946232985905</v>
+        <v>-0.30326692072857936</v>
       </c>
       <c r="Y2" t="n">
-        <v>-0.6928617331423178</v>
+        <v>-0.2708669917417368</v>
       </c>
       <c r="Z2" t="n">
-        <v>-0.6203091822745436</v>
+        <v>-0.24186925575591708</v>
       </c>
       <c r="AA2" t="n">
-        <v>-0.5539365135658978</v>
+        <v>-0.21592905242481872</v>
       </c>
       <c r="AB2" t="n">
-        <v>-0.4950169341954595</v>
+        <v>-0.19273414691860125</v>
       </c>
       <c r="AC2" t="n">
-        <v>-0.44275922223563396</v>
+        <v>-0.1720018540946222</v>
       </c>
       <c r="AD2" t="n">
-        <v>-0.3959788937969035</v>
+        <v>-0.1534768872203641</v>
       </c>
       <c r="AE2" t="n">
-        <v>-0.35395176643847776</v>
+        <v>-0.13692908268011753</v>
       </c>
       <c r="AF2" t="n">
-        <v>-0.3162567231634924</v>
+        <v>-0.12215122955896072</v>
       </c>
       <c r="AG2" t="n">
         <v>-0.2824962871674267</v>
@@ -1480,100 +1480,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.18578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="B3" t="n">
-        <v>11.564214690712749</v>
+        <v>#NUM!</v>
       </c>
       <c r="C3" t="n">
-        <v>14.558483741581705</v>
+        <v>#NUM!</v>
       </c>
       <c r="D3" t="n">
-        <v>18.328045139469435</v>
+        <v>#NUM!</v>
       </c>
       <c r="E3" t="n">
-        <v>23.073641774588644</v>
+        <v>#NUM!</v>
       </c>
       <c r="F3" t="n">
-        <v>29.047993972665108</v>
+        <v>#NUM!</v>
       </c>
       <c r="G3" t="n">
-        <v>36.56925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="H3" t="n">
-        <v>46.03796790192839</v>
+        <v>#NUM!</v>
       </c>
       <c r="I3" t="n">
-        <v>57.95836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="J3" t="n">
-        <v>72.96526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="K3" t="n">
-        <v>91.8578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="L3" t="n">
-        <v>115.64214690712748</v>
+        <v>#NUM!</v>
       </c>
       <c r="M3" t="n">
-        <v>145.58483741581705</v>
+        <v>#NUM!</v>
       </c>
       <c r="N3" t="n">
-        <v>183.28045139469435</v>
+        <v>#NUM!</v>
       </c>
       <c r="O3" t="n">
-        <v>230.73641774588646</v>
+        <v>#NUM!</v>
       </c>
       <c r="P3" t="n">
-        <v>290.4799397266511</v>
+        <v>#NUM!</v>
       </c>
       <c r="Q3" t="n">
-        <v>365.6925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="R3" t="n">
-        <v>460.37967901928386</v>
+        <v>#NUM!</v>
       </c>
       <c r="S3" t="n">
-        <v>579.5836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="T3" t="n">
-        <v>729.6526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="U3" t="n">
-        <v>918.578224124646</v>
+        <v>#NUM!</v>
       </c>
       <c r="V3" t="n">
-        <v>1156.421469071275</v>
+        <v>#NUM!</v>
       </c>
       <c r="W3" t="n">
-        <v>1455.8483741581706</v>
+        <v>#NUM!</v>
       </c>
       <c r="X3" t="n">
-        <v>1832.8045139469436</v>
+        <v>#NUM!</v>
       </c>
       <c r="Y3" t="n">
-        <v>2307.3641774588646</v>
+        <v>#NUM!</v>
       </c>
       <c r="Z3" t="n">
-        <v>2904.799397266511</v>
+        <v>#NUM!</v>
       </c>
       <c r="AA3" t="n">
-        <v>3656.925777383191</v>
+        <v>#NUM!</v>
       </c>
       <c r="AB3" t="n">
-        <v>4603.796790192839</v>
+        <v>#NUM!</v>
       </c>
       <c r="AC3" t="n">
-        <v>5795.836769910185</v>
+        <v>#NUM!</v>
       </c>
       <c r="AD3" t="n">
-        <v>7296.526192250955</v>
+        <v>#NUM!</v>
       </c>
       <c r="AE3" t="n">
-        <v>9185.782241246461</v>
+        <v>#NUM!</v>
       </c>
       <c r="AF3" t="n">
-        <v>11564.214690712748</v>
+        <v>#NUM!</v>
       </c>
       <c r="AG3" t="n">
         <v>14558.483741581706</v>

--- a/lin_R1_by_R2 (2.5 by 1)100.xlsx
+++ b/lin_R1_by_R2 (2.5 by 1)100.xlsx
@@ -316,100 +316,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>63.13872392232774</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>79.4869440140747</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>100.0681337251789</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>125.97831645744463</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>158.5973039233244</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>199.66217615111586</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>251.35978733076308</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>316.4432237738752</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>398.37841579899964</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>501.5287111596636</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>631.3872392232774</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>794.8694401407469</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>1000.6813372517889</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>1259.7831645744463</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>1585.973039233244</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>1996.6217615111586</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>2513.597873307631</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>3164.432237738752</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>3983.7841579899964</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>5015.287111596635</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>6313.8723922327745</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>7948.694401407469</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>10006.813372517889</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>12597.831645744463</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>15859.73039233244</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>19966.217615111585</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>25135.978733076307</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>31644.32237738752</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>39837.84157989996</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>50152.87111596636</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>63138.72392232774</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>79486.94401407469</v>
       </c>
       <c r="AG3" t="n">
         <v>14558.483741581706</v>
@@ -704,100 +704,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>63.13872392232774</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>79.4869440140747</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>100.0681337251789</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>125.97831645744463</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>158.5973039233244</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>199.66217615111586</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>251.35978733076308</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>316.4432237738752</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>398.37841579899964</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>501.5287111596636</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>631.3872392232774</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>794.8694401407469</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>1000.6813372517889</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>1259.7831645744463</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>1585.973039233244</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>1996.6217615111586</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>2513.597873307631</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>3164.432237738752</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>3983.7841579899964</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>5015.287111596635</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>6313.8723922327745</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>7948.694401407469</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>10006.813372517889</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>12597.831645744463</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>15859.73039233244</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>19966.217615111585</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>25135.978733076307</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>31644.32237738752</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>39837.84157989996</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>50152.87111596636</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>63138.72392232774</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>79486.94401407469</v>
       </c>
       <c r="AG3" t="n">
         <v>14558.483741581706</v>
@@ -1092,100 +1092,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>63.13872392232774</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>79.4869440140747</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>100.0681337251789</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>125.97831645744463</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>158.5973039233244</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>199.66217615111586</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>251.35978733076308</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>316.4432237738752</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>398.37841579899964</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>501.5287111596636</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>631.3872392232774</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>794.8694401407469</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>1000.6813372517889</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>1259.7831645744463</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>1585.973039233244</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>1996.6217615111586</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>2513.597873307631</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>3164.432237738752</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>3983.7841579899964</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>5015.287111596635</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>6313.8723922327745</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>7948.694401407469</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>10006.813372517889</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>12597.831645744463</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>15859.73039233244</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>19966.217615111585</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>25135.978733076307</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>31644.32237738752</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>39837.84157989996</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>50152.87111596636</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>63138.72392232774</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>79486.94401407469</v>
       </c>
       <c r="AG3" t="n">
         <v>14558.483741581706</v>
@@ -1480,100 +1480,100 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>#NUM!</v>
+        <v>63.13872392232774</v>
       </c>
       <c r="B3" t="n">
-        <v>#NUM!</v>
+        <v>79.4869440140747</v>
       </c>
       <c r="C3" t="n">
-        <v>#NUM!</v>
+        <v>100.0681337251789</v>
       </c>
       <c r="D3" t="n">
-        <v>#NUM!</v>
+        <v>125.97831645744463</v>
       </c>
       <c r="E3" t="n">
-        <v>#NUM!</v>
+        <v>158.5973039233244</v>
       </c>
       <c r="F3" t="n">
-        <v>#NUM!</v>
+        <v>199.66217615111586</v>
       </c>
       <c r="G3" t="n">
-        <v>#NUM!</v>
+        <v>251.35978733076308</v>
       </c>
       <c r="H3" t="n">
-        <v>#NUM!</v>
+        <v>316.4432237738752</v>
       </c>
       <c r="I3" t="n">
-        <v>#NUM!</v>
+        <v>398.37841579899964</v>
       </c>
       <c r="J3" t="n">
-        <v>#NUM!</v>
+        <v>501.5287111596636</v>
       </c>
       <c r="K3" t="n">
-        <v>#NUM!</v>
+        <v>631.3872392232774</v>
       </c>
       <c r="L3" t="n">
-        <v>#NUM!</v>
+        <v>794.8694401407469</v>
       </c>
       <c r="M3" t="n">
-        <v>#NUM!</v>
+        <v>1000.6813372517889</v>
       </c>
       <c r="N3" t="n">
-        <v>#NUM!</v>
+        <v>1259.7831645744463</v>
       </c>
       <c r="O3" t="n">
-        <v>#NUM!</v>
+        <v>1585.973039233244</v>
       </c>
       <c r="P3" t="n">
-        <v>#NUM!</v>
+        <v>1996.6217615111586</v>
       </c>
       <c r="Q3" t="n">
-        <v>#NUM!</v>
+        <v>2513.597873307631</v>
       </c>
       <c r="R3" t="n">
-        <v>#NUM!</v>
+        <v>3164.432237738752</v>
       </c>
       <c r="S3" t="n">
-        <v>#NUM!</v>
+        <v>3983.7841579899964</v>
       </c>
       <c r="T3" t="n">
-        <v>#NUM!</v>
+        <v>5015.287111596635</v>
       </c>
       <c r="U3" t="n">
-        <v>#NUM!</v>
+        <v>6313.8723922327745</v>
       </c>
       <c r="V3" t="n">
-        <v>#NUM!</v>
+        <v>7948.694401407469</v>
       </c>
       <c r="W3" t="n">
-        <v>#NUM!</v>
+        <v>10006.813372517889</v>
       </c>
       <c r="X3" t="n">
-        <v>#NUM!</v>
+        <v>12597.831645744463</v>
       </c>
       <c r="Y3" t="n">
-        <v>#NUM!</v>
+        <v>15859.73039233244</v>
       </c>
       <c r="Z3" t="n">
-        <v>#NUM!</v>
+        <v>19966.217615111585</v>
       </c>
       <c r="AA3" t="n">
-        <v>#NUM!</v>
+        <v>25135.978733076307</v>
       </c>
       <c r="AB3" t="n">
-        <v>#NUM!</v>
+        <v>31644.32237738752</v>
       </c>
       <c r="AC3" t="n">
-        <v>#NUM!</v>
+        <v>39837.84157989996</v>
       </c>
       <c r="AD3" t="n">
-        <v>#NUM!</v>
+        <v>50152.87111596636</v>
       </c>
       <c r="AE3" t="n">
-        <v>#NUM!</v>
+        <v>63138.72392232774</v>
       </c>
       <c r="AF3" t="n">
-        <v>#NUM!</v>
+        <v>79486.94401407469</v>
       </c>
       <c r="AG3" t="n">
         <v>14558.483741581706</v>
